--- a/biology/Botanique/Civilisation_du_riz/Civilisation_du_riz.xlsx
+++ b/biology/Botanique/Civilisation_du_riz/Civilisation_du_riz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle civilisation du riz l'ensemble des territoires et populations dont le riz est (ou plutôt était) la principale culture et le principal aliment. Elle recouvre principalement le continent asiatique et s'oppose à ce titre aux civilisations du blé (Europe et Moyen-Orient) et du maïs (Amérique).
 Ce concept forgé par l'historien français Fernand Braudel s'applique principalement à l'histoire du monde de l'Antiquité au XVIIIe siècle. Dès la fin du XVIIIe siècle, la première mondialisation brouille en effet les pistes et rend cette description obsolète. 
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fernand Braudel, Civilisation matérielle, économie et capitalisme, XVe-XVIIIe siècle, Paris, Armand Colin, 1979, volume 1, chapitre « Le pain de chaque jour », p.81-152.</t>
         </is>
